--- a/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Republic of Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Republic of Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Republic of Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Republic of Ireland']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Republic of Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['Scotland', 'Republic of Ireland']</t>
+          <t>['Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Republic of Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['Scotland', 'Republic of Ireland']</t>
+          <t>['Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Republic of Ireland']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Republic of Ireland']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Republic of Ireland']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Republic of Ireland']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Republic of Ireland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Republic of Ireland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>

--- a/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,55 +446,65 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>top_four_third_teams</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>last_two_third_teams</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>tied_teams</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>change_flag</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>change_count</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Group A</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Group C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Group D</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Group E</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Group F</t>
         </is>
@@ -509,51 +519,61 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>['Belgium', 'Hungary', 'Italy', 'Morocco']</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>['Hungary', 3, -4, 2]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>['Morocco', 3, 0, 0]</t>
         </is>
@@ -564,55 +584,65 @@
         <v>1986</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Morocco']</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Uruguay']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland']</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['Italy', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -4, 2]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -5, 2]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>['Morocco', 3, 0, 0]</t>
         </is>
@@ -623,57 +653,67 @@
         <v>1986</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'England', 'Hungary']</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Uruguay']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland']</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['Italy', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -4, 2]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -5, 2]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>['England', 3, 0, 1]</t>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -682,57 +722,67 @@
         <v>1986</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Morocco']</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Uruguay']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -4, 2]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -6, 2]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>['Morocco', 3, 0, 0]</t>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
     </row>
@@ -741,57 +791,67 @@
         <v>1986</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Morocco']</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Northern Ireland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -4, 2]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 1, -2, 2]</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -6, 2]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>['Morocco', 3, 0, 0]</t>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
     </row>
@@ -800,57 +860,67 @@
         <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Morocco']</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Northern Ireland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -4, 2]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 1, -2, 2]</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>['Morocco', 3, 0, 0]</t>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
     </row>
@@ -859,57 +929,67 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Poland']</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Northern Ireland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="inlineStr">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -4, 2]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 1, -2, 2]</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>['Poland', 3, -1, 1]</t>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
     </row>
@@ -918,57 +998,67 @@
         <v>1986</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Poland']</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Northern Ireland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -4, 2]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 1, -2, 2]</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>['Poland', 3, -1, 1]</t>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
     </row>
@@ -977,57 +1067,67 @@
         <v>1986</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Poland']</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Northern Ireland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['Hungary', 2, -5, 2]</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 1, -2, 2]</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>['Poland', 3, -1, 1]</t>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
     </row>
@@ -1036,57 +1136,67 @@
         <v>1986</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Hungary', 'Paraguay', 'Poland']</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Northern Ireland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['Paraguay', 3, 0, 2]</t>
-        </is>
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -5, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -2, 2]</t>
+          <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>['Poland', 3, -1, 1]</t>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
     </row>
@@ -1095,55 +1205,65 @@
         <v>1986</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Hungary', 'Paraguay', 'Poland']</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Northern Ireland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['Paraguay', 3, 0, 2]</t>
-        </is>
+      <c r="I12" t="n">
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -5, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -2, 2]</t>
+          <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1154,55 +1274,65 @@
         <v>1986</v>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Hungary', 'Paraguay', 'Poland']</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Algeria']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['Paraguay', 3, 0, 2]</t>
-        </is>
+      <c r="I13" t="n">
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -5, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Algeria', 1, -2, 1]</t>
+          <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1213,55 +1343,65 @@
         <v>1986</v>
       </c>
       <c r="B14" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Hungary', 'Paraguay', 'Poland']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Algeria']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+          <t>['Bulgaria', 'Northern Ireland', 'Paraguay', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>['Paraguay', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['Hungary', 2, -5, 2]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>['Algeria', 1, -2, 1]</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1276,51 +1416,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Poland']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Algeria']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 4]</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>['Hungary', 2, -5, 2]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>['Algeria', 1, -2, 1]</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1335,51 +1485,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Poland']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Algeria']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="G16" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 4]</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>['Hungary', 2, -5, 2]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>['Algeria', 1, -2, 1]</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1390,55 +1550,65 @@
         <v>1986</v>
       </c>
       <c r="B17" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Hungary', 'Poland']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Algeria']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>['Belgium', 3, 0, 4]</t>
-        </is>
+          <t>['Bulgaria', 'Northern Ireland', 'Paraguay', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -5, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Algeria', 1, -2, 1]</t>
+          <t>['Paraguay', 3, 0, 3]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1449,55 +1619,65 @@
         <v>1986</v>
       </c>
       <c r="B18" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Hungary', 'Paraguay', 'Poland']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Algeria']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="n">
-        <v>7</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>['Paraguay', 3, 0, 3]</t>
-        </is>
+      <c r="I18" t="n">
+        <v>6</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -5, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Algeria', 1, -2, 1]</t>
+          <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1508,57 +1688,67 @@
         <v>1986</v>
       </c>
       <c r="B19" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Paraguay', 'Poland', 'Uruguay']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['Hungary', 'Algeria']</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>['Belgium', 'Bulgaria', 'England', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="n">
-        <v>8</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>['Paraguay', 3, 0, 3]</t>
-        </is>
+      <c r="I19" t="n">
+        <v>7</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -6, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Algeria', 1, -2, 1]</t>
+          <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>['Poland', 3, -2, 1]</t>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['England', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -1567,57 +1757,67 @@
         <v>1986</v>
       </c>
       <c r="B20" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Paraguay', 'Poland', 'Uruguay']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>8</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>['Paraguay', 3, 0, 3]</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -6, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -3, 2]</t>
+          <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>['Poland', 3, -2, 1]</t>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1626,57 +1826,67 @@
         <v>1986</v>
       </c>
       <c r="B21" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Paraguay', 'Poland', 'Uruguay']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>['Paraguay', 3, 0, 3]</t>
-        </is>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -6, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -3, 2]</t>
+          <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>['Poland', 3, -2, 1]</t>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -1, 1]</t>
         </is>
       </c>
     </row>
@@ -1685,57 +1895,67 @@
         <v>1986</v>
       </c>
       <c r="B22" t="n">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Paraguay', 'Poland', 'Uruguay']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="n">
-        <v>8</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>['Paraguay', 3, 0, 3]</t>
-        </is>
+      <c r="I22" t="n">
+        <v>9</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -6, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -3, 2]</t>
+          <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>['Poland', 3, -2, 1]</t>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -1, 1]</t>
         </is>
       </c>
     </row>
@@ -1744,55 +1964,65 @@
         <v>1986</v>
       </c>
       <c r="B23" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Paraguay', 'Poland', 'Uruguay']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="G23" t="n">
-        <v>8</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>['Paraguay', 3, 0, 3]</t>
-        </is>
+      <c r="I23" t="n">
+        <v>9</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -6, 2]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -3, 2]</t>
+          <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1803,55 +2033,65 @@
         <v>1986</v>
       </c>
       <c r="B24" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>9</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>['Hungary', 2, -6, 2]</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 1, -3, 2]</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1862,55 +2102,65 @@
         <v>1986</v>
       </c>
       <c r="B25" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>9</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>['Hungary', 2, -6, 2]</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 1, -3, 2]</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -2, 2]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1921,55 +2171,65 @@
         <v>1986</v>
       </c>
       <c r="B26" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Northern Ireland']</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Algeria']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="n">
-        <v>9</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>['Hungary', 2, -6, 2]</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 1, -3, 2]</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>['Algeria', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1980,55 +2240,65 @@
         <v>1986</v>
       </c>
       <c r="B27" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="n">
-        <v>9</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>['Hungary', 2, -6, 2]</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>['Northern Ireland', 1, -3, 2]</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2039,55 +2309,65 @@
         <v>1986</v>
       </c>
       <c r="B28" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="G28" t="n">
-        <v>9</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>['Northern Ireland', 1, -3, 2]</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2102,51 +2382,61 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="G29" t="n">
-        <v>9</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>['Northern Ireland', 1, -4, 2]</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2157,55 +2447,65 @@
         <v>1986</v>
       </c>
       <c r="B30" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>1986-06-13</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="n">
-        <v>9</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>['Northern Ireland', 1, -4, 2]</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2216,55 +2516,65 @@
         <v>1990</v>
       </c>
       <c r="B31" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>['Uruguay', 'Austria']</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>['Argentina', 2, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2275,55 +2585,65 @@
         <v>1990</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>['Argentina', 2, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>['Uruguay', 1, -2, 1]</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2334,55 +2654,65 @@
         <v>1990</v>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>['Austria', 1, -2, 0]</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>['Argentina', 2, 1, 2]</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>['Uruguay', 1, -2, 1]</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2393,57 +2723,67 @@
         <v>1990</v>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Scotland']</t>
+          <t>1990-06-18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Ireland', 'Romania', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>['Austria', 1, -2, 0]</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>['Argentina', 2, 1, 2]</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['Romania', 2, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>['Uruguay', 1, -2, 1]</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Egypt', 3, 0, 1]</t>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2452,57 +2792,67 @@
         <v>1990</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Scotland']</t>
+          <t>1990-06-18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Austria']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+          <t>['Austria', 'Colombia', 'Romania', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>['Austria', 1, -2, 0]</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
+      <c r="I35" t="n">
+        <v>2</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>['Austria', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['Romania', 2, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>['Uruguay', 1, -2, 1]</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Egypt', 3, 0, 1]</t>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2511,57 +2861,67 @@
         <v>1990</v>
       </c>
       <c r="B36" t="n">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Scotland']</t>
+          <t>1990-06-18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Austria']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>['Austria', 1, -2, 0]</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
+      <c r="I36" t="n">
+        <v>3</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>['Austria', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>['Uruguay', 1, -2, 1]</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Egypt', 3, 0, 1]</t>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2570,57 +2930,67 @@
         <v>1990</v>
       </c>
       <c r="B37" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Scotland']</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Austria']</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>['Austria', 1, -2, 0]</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
+      <c r="I37" t="n">
+        <v>3</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
+          <t>['Austria', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>['Egypt', 3, 0, 1]</t>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2629,57 +2999,67 @@
         <v>1990</v>
       </c>
       <c r="B38" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Scotland']</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>['Egypt', 3, 0, 1]</t>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2688,57 +3068,67 @@
         <v>1990</v>
       </c>
       <c r="B39" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Sweden']</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>['Sweden', 2, -1, 3]</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
           <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>['Egypt', 3, 0, 1]</t>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2747,57 +3137,67 @@
         <v>1990</v>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Sweden']</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>['Sweden', 2, -1, 3]</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
           <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>['Egypt', 3, 0, 1]</t>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2806,57 +3206,67 @@
         <v>1990</v>
       </c>
       <c r="B41" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Sweden']</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="n">
+        <v>4</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>['Sweden', 2, -1, 3]</t>
-        </is>
-      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>['Egypt', 3, 0, 1]</t>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2865,57 +3275,67 @@
         <v>1990</v>
       </c>
       <c r="B42" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Sweden']</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['Austria', 'Uruguay']</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>['Austria', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
+      <c r="I42" t="n">
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 3]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>['Egypt', 3, 0, 1]</t>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2924,57 +3344,67 @@
         <v>1990</v>
       </c>
       <c r="B43" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Sweden']</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>['Sweden', 2, -1, 3]</t>
-        </is>
-      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>['Egypt', 3, 0, 1]</t>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2983,57 +3413,67 @@
         <v>1990</v>
       </c>
       <c r="B44" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Sweden']</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Egypt']</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>1</v>
       </c>
-      <c r="G44" t="n">
-        <v>3</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>['Austria', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
+      <c r="I44" t="n">
+        <v>5</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 3]</t>
+          <t>['Austria', 2, 0, 2]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>['Egypt', 2, -1, 1]</t>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3042,57 +3482,67 @@
         <v>1990</v>
       </c>
       <c r="B45" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['Austria', 'Colombia', 'Romania', 'Sweden']</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Austria', 'Egypt']</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="G45" t="n">
-        <v>4</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>['Austria', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>['Romania', 2, 0, 3]</t>
-        </is>
+      <c r="I45" t="n">
+        <v>6</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 3]</t>
+          <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>['Egypt', 2, -1, 1]</t>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3101,57 +3551,67 @@
         <v>1990</v>
       </c>
       <c r="B46" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['Austria', 'Colombia', 'Romania', 'Sweden']</t>
+          <t>1990-06-20</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>4</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>['Austria', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>['Romania', 2, 0, 3]</t>
-        </is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>['Sweden', 2, -1, 3]</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>['Egypt', 2, -1, 1]</t>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3160,57 +3620,67 @@
         <v>1990</v>
       </c>
       <c r="B47" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Sweden']</t>
+          <t>1990-06-20</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['Egypt', 'Uruguay']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>1</v>
       </c>
-      <c r="G47" t="n">
-        <v>5</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>['Austria', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>['Sweden', 2, -1, 3]</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>['Scotland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>['Egypt', 2, -1, 1]</t>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3219,57 +3689,67 @@
         <v>1990</v>
       </c>
       <c r="B48" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>['Sweden', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="G48" t="n">
-        <v>6</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>['Austria', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>['Sweden', 2, -1, 3]</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>['Ireland', 3, 0, 2]</t>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3278,57 +3758,67 @@
         <v>1990</v>
       </c>
       <c r="B49" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>1990-06-20</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['Austria', 'Uruguay']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['Scotland', 'Ireland']</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>7</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>['Austria', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>['Scotland', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>['Ireland', 3, 0, 2]</t>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3337,57 +3827,67 @@
         <v>1990</v>
       </c>
       <c r="B50" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>1990-06-21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['Austria', 'Uruguay']</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['Scotland', 'Ireland']</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="G50" t="n">
-        <v>7</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>['Austria', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="I50" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>['Scotland', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>['Ireland', 3, 0, 2]</t>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3396,57 +3896,67 @@
         <v>1990</v>
       </c>
       <c r="B51" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>['Scotland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>8</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>['Austria', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>['Ireland', 3, 0, 2]</t>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3455,57 +3965,67 @@
         <v>1990</v>
       </c>
       <c r="B52" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
+          <t>1990-06-21</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['Scotland', 'Uruguay']</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>['Austria', 'Scotland']</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>8</v>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>['Uruguay', 2, -2, 1]</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3514,57 +4034,67 @@
         <v>1990</v>
       </c>
       <c r="B53" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
+          <t>1990-06-21</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['Scotland', 'Uruguay']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>['Austria', 'Scotland']</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>8</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>['Uruguay', 2, -2, 1]</t>
-        </is>
-      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['Egypt', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3573,57 +4103,67 @@
         <v>1990</v>
       </c>
       <c r="B54" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
+          <t>1990-06-21</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['Scotland', 'Uruguay']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>8</v>
-      </c>
-      <c r="H54" t="inlineStr">
+          <t>['Argentina', 'Austria', 'Colombia', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Egypt']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>['Colombia', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>['Uruguay', 2, -2, 1]</t>
-        </is>
-      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['Egypt', 2, -1, 1]</t>
         </is>
       </c>
     </row>
@@ -3632,55 +4172,65 @@
         <v>1990</v>
       </c>
       <c r="B55" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>['Austria', 'Scotland']</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>['Austria', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="G55" t="n">
-        <v>9</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="n">
+        <v>13</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>['Colombia', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
         <is>
           <t>['Uruguay', 3, -1, 2]</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>['Ireland', 3, 0, 2]</t>
         </is>
@@ -3691,57 +4241,59 @@
         <v>1990</v>
       </c>
       <c r="B56" t="n">
-        <v>93</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>['Austria', 'Scotland']</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="n">
-        <v>9</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>['Austria', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 3]</t>
-        </is>
+      <c r="I56" t="n">
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -1, 2]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Argentina', 2, 1, 2]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3754,51 +4306,61 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>1994-06-26</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Romania', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>['Romania', 4, -1, 4]</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -3809,57 +4371,67 @@
         <v>1994</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'Romania']</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>1</v>
       </c>
-      <c r="G58" t="n">
+      <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>['Romania', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -3868,57 +4440,67 @@
         <v>1994</v>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'Romania']</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['South Korea', 'Cameroon']</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="G59" t="n">
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>['Romania', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>['Cameroon', 1, -3, 2]</t>
-        </is>
-      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['South Korea', 2, -1, 2]</t>
+          <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -3927,57 +4509,67 @@
         <v>1994</v>
       </c>
       <c r="B60" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'Romania']</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="G60" t="n">
+      <c r="I60" t="n">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>['Romania', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -3, 2]</t>
-        </is>
-      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['South Korea', 2, -1, 2]</t>
+          <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -3986,57 +4578,67 @@
         <v>1994</v>
       </c>
       <c r="B61" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>1</v>
       </c>
-      <c r="G61" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4049,53 +4651,63 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="G62" t="n">
-        <v>2</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4108,53 +4720,63 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="G63" t="n">
-        <v>2</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>['South Korea', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4163,57 +4785,67 @@
         <v>1994</v>
       </c>
       <c r="B64" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="G64" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -2, 2]</t>
-        </is>
-      </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -3, 2]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4222,57 +4854,67 @@
         <v>1994</v>
       </c>
       <c r="B65" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -3, 2]</t>
-        </is>
-      </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -2, 3]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4281,57 +4923,67 @@
         <v>1994</v>
       </c>
       <c r="B66" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="G66" t="n">
-        <v>2</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 3]</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -3, 2]</t>
-        </is>
-      </c>
       <c r="K66" t="inlineStr">
         <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4340,57 +4992,67 @@
         <v>1994</v>
       </c>
       <c r="B67" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Italy', 'United States']</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="G67" t="n">
-        <v>3</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 3]</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -3, 2]</t>
-        </is>
-      </c>
       <c r="K67" t="inlineStr">
         <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>['Belgium', 6, 1, 2]</t>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4399,57 +5061,67 @@
         <v>1994</v>
       </c>
       <c r="B68" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Italy', 'United States']</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="n">
-        <v>3</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -3, 2]</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>['Belgium', 6, 1, 2]</t>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4458,57 +5130,67 @@
         <v>1994</v>
       </c>
       <c r="B69" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Italy', 'United States']</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="n">
-        <v>3</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 4]</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -3, 2]</t>
-        </is>
-      </c>
       <c r="K69" t="inlineStr">
         <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>['Belgium', 6, 1, 2]</t>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4517,57 +5199,67 @@
         <v>1994</v>
       </c>
       <c r="B70" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>['United States', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="G70" t="n">
-        <v>4</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 4]</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -3, 2]</t>
-        </is>
-      </c>
       <c r="K70" t="inlineStr">
         <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>['Italy', 4, 0, 1]</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>['Norway', 4, 0, 1]</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4576,57 +5268,67 @@
         <v>1994</v>
       </c>
       <c r="B71" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Netherlands', 'Norway', 'United States']</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>['United States', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
         <v>1</v>
       </c>
-      <c r="G71" t="n">
-        <v>5</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 4]</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -3, 2]</t>
-        </is>
-      </c>
       <c r="K71" t="inlineStr">
         <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>['Norway', 4, 0, 1]</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4635,57 +5337,67 @@
         <v>1994</v>
       </c>
       <c r="B72" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Netherlands', 'Norway', 'United States']</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>['United States', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>5</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 4]</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -2, 3]</t>
-        </is>
-      </c>
       <c r="K72" t="inlineStr">
         <is>
+          <t>['Russia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>['Norway', 4, 0, 1]</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4694,57 +5406,67 @@
         <v>1994</v>
       </c>
       <c r="B73" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>['United States', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 4]</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -2, 3]</t>
-        </is>
-      </c>
       <c r="K73" t="inlineStr">
         <is>
+          <t>['Russia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4753,57 +5475,67 @@
         <v>1994</v>
       </c>
       <c r="B74" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>['United States', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="G74" t="n">
-        <v>6</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 4]</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>['South Korea', 2, -2, 3]</t>
-        </is>
-      </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Bulgaria', 6, 2, 5]</t>
+          <t>['Russia', 3, -2, 3]</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4812,57 +5544,67 @@
         <v>1994</v>
       </c>
       <c r="B75" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>['United States', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="G75" t="n">
-        <v>6</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>['Russia', 3, -2, 4]</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 6, 2, 5]</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -4871,55 +5613,65 @@
         <v>1994</v>
       </c>
       <c r="B76" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['United States', 'Netherlands']</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>6</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>['Russia', 3, -2, 4]</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 6, 2, 5]</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 3]</t>
         </is>
@@ -4930,55 +5682,65 @@
         <v>1994</v>
       </c>
       <c r="B77" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['United States', 'Netherlands']</t>
         </is>
       </c>
-      <c r="F77" t="n">
+      <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="n">
-        <v>6</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="n">
+        <v>4</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 4]</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -1, 5]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 6, 2, 5]</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 3]</t>
         </is>
@@ -4989,55 +5751,65 @@
         <v>1994</v>
       </c>
       <c r="B78" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['United States', 'Netherlands']</t>
         </is>
       </c>
-      <c r="F78" t="n">
+      <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>6</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 4]</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 0, 6]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 6, 2, 5]</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 3]</t>
         </is>
@@ -5048,55 +5820,65 @@
         <v>1994</v>
       </c>
       <c r="B79" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['United States', 'Netherlands']</t>
         </is>
       </c>
-      <c r="F79" t="n">
+      <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="n">
-        <v>6</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -1, 5]</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 6, 2, 5]</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 3]</t>
         </is>
@@ -5107,57 +5889,67 @@
         <v>1994</v>
       </c>
       <c r="B80" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>['United States', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['Italy', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="n">
-        <v>6</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>['Russia', 3, 0, 6]</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 6, 2, 5]</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -5166,55 +5958,65 @@
         <v>1994</v>
       </c>
       <c r="B81" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F81" t="n">
+      <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="G81" t="n">
-        <v>7</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>['Russia', 3, 0, 6]</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 6, 2, 5]</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
@@ -5225,55 +6027,65 @@
         <v>1994</v>
       </c>
       <c r="B82" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="G82" t="n">
-        <v>7</v>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 6, 2, 5]</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
@@ -5284,55 +6096,65 @@
         <v>1994</v>
       </c>
       <c r="B83" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F83" t="n">
+      <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="n">
-        <v>7</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="n">
+        <v>5</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>['Bulgaria', 6, 2, 5]</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="N83" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
@@ -5347,51 +6169,61 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>['Argentina', 'Belgium', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="G84" t="n">
-        <v>8</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="n">
+        <v>6</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>['Argentina', 6, 3, 6]</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
@@ -5406,51 +6238,61 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>['Argentina', 'Belgium', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="G85" t="n">
-        <v>8</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>['Argentina', 6, 3, 6]</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>

--- a/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,55 +456,60 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>top_four_third_teams</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>last_two_third_teams</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tied_teams</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>change_flag</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>change_count</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Group A</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Group C</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Group D</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Group E</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Group F</t>
         </is>
@@ -529,51 +534,56 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>['Belgium', 'Hungary', 'Italy', 'Morocco']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['Hungary', 3, -4, 2]</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>['Morocco', 3, 0, 0]</t>
         </is>
@@ -584,7 +594,7 @@
         <v>1986</v>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -598,51 +608,56 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['Hungary', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['Hungary', 'Uruguay']</t>
         </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>['Hungary', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>['Morocco', 3, 0, 0]</t>
         </is>
@@ -653,7 +668,7 @@
         <v>1986</v>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -667,51 +682,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['Hungary', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['Hungary', 'Uruguay']</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>['Hungary', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>['Morocco', 3, 0, 0]</t>
         </is>
@@ -722,7 +742,7 @@
         <v>1986</v>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -736,51 +756,56 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>['Hungary', 2, -6, 2]</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -791,7 +816,7 @@
         <v>1986</v>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -805,51 +830,56 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>['Hungary', 2, -6, 2]</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -860,7 +890,7 @@
         <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -874,51 +904,56 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -929,11 +964,11 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1986-06-10</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -943,51 +978,56 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -998,11 +1038,11 @@
         <v>1986</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1986-06-10</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1012,51 +1052,56 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1067,11 +1112,11 @@
         <v>1986</v>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1986-06-10</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1081,51 +1126,56 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1136,11 +1186,11 @@
         <v>1986</v>
       </c>
       <c r="B11" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1986-06-10</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1150,51 +1200,56 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1205,11 +1260,11 @@
         <v>1986</v>
       </c>
       <c r="B12" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1986-06-10</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1219,51 +1274,56 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1274,11 +1334,11 @@
         <v>1986</v>
       </c>
       <c r="B13" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1986-06-10</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1288,51 +1348,56 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1343,11 +1408,11 @@
         <v>1986</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1357,51 +1422,56 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Northern Ireland', 'Paraguay', 'Poland']</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>['Paraguay', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1412,11 +1482,11 @@
         <v>1986</v>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1426,51 +1496,56 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 4]</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1481,11 +1556,11 @@
         <v>1986</v>
       </c>
       <c r="B16" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1495,51 +1570,56 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>4</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 4]</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1550,11 +1630,11 @@
         <v>1986</v>
       </c>
       <c r="B17" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1564,51 +1644,56 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Northern Ireland', 'Paraguay', 'Poland']</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>5</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>['Paraguay', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1619,11 +1704,11 @@
         <v>1986</v>
       </c>
       <c r="B18" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1633,51 +1718,56 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -1688,65 +1778,70 @@
         <v>1986</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'England', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>7</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>['England', 3, 0, 1]</t>
         </is>
@@ -1757,65 +1852,70 @@
         <v>1986</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>8</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>['Morocco', 3, 0, 0]</t>
         </is>
@@ -1826,65 +1926,70 @@
         <v>1986</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>9</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>['Poland', 3, -1, 1]</t>
         </is>
@@ -1895,65 +2000,70 @@
         <v>1986</v>
       </c>
       <c r="B22" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>9</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>['Poland', 3, -1, 1]</t>
         </is>
@@ -1964,65 +2074,70 @@
         <v>1986</v>
       </c>
       <c r="B23" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>9</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2033,65 +2148,70 @@
         <v>1986</v>
       </c>
       <c r="B24" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1986-06-11</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>9</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2102,11 +2222,11 @@
         <v>1986</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1986-06-12</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2116,51 +2236,56 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>['Northern Ireland', 1, -2, 2]</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2171,11 +2296,11 @@
         <v>1986</v>
       </c>
       <c r="B26" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1986-06-12</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2185,51 +2310,56 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['Hungary', 'Algeria']</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>10</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>['Algeria', 1, -2, 1]</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2240,11 +2370,11 @@
         <v>1986</v>
       </c>
       <c r="B27" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1986-06-12</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2254,51 +2384,56 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>10</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>['Northern Ireland', 1, -3, 2]</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2309,11 +2444,11 @@
         <v>1986</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1986-06-12</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2323,51 +2458,56 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>10</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>['Northern Ireland', 1, -3, 2]</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2378,11 +2518,11 @@
         <v>1986</v>
       </c>
       <c r="B29" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1986-06-12</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2392,51 +2532,56 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>10</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>['Northern Ireland', 1, -4, 2]</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2447,11 +2592,11 @@
         <v>1986</v>
       </c>
       <c r="B30" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1986-06-13</t>
+          <t>1986-06-09</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2461,51 +2606,56 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Poland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>10</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>['Belgium', 3, 0, 5]</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>['Northern Ireland', 1, -4, 2]</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>['Poland', 3, -2, 1]</t>
         </is>
@@ -2516,65 +2666,62 @@
         <v>1990</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1990-06-18</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 2]</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>['Argentina', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2585,65 +2732,62 @@
         <v>1990</v>
       </c>
       <c r="B32" t="n">
-        <v>29</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1990-06-18</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 2]</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>['Uruguay', 2, -2, 1]</t>
-        </is>
-      </c>
       <c r="O32" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2654,65 +2798,62 @@
         <v>1990</v>
       </c>
       <c r="B33" t="n">
-        <v>52</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1990-06-18</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 2]</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2723,65 +2864,62 @@
         <v>1990</v>
       </c>
       <c r="B34" t="n">
-        <v>62</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1990-06-18</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ireland', 'Romania', 'Scotland']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>['Romania', 2, 0, 3]</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2792,65 +2930,62 @@
         <v>1990</v>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1990-06-18</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['Austria', 'Colombia', 'Romania', 'Scotland']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['Ireland', 'Uruguay']</t>
+          <t>['Colombia', 'Ireland', 'Romania', 'Scotland']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>['Austria', 2, 0, 2]</t>
-        </is>
+      <c r="J35" t="n">
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>['Romania', 2, 0, 3]</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2861,65 +2996,62 @@
         <v>1990</v>
       </c>
       <c r="B36" t="n">
-        <v>68</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1990-06-18</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['Austria', 'Colombia', 'Romania', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>['Ireland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['Austria', 'Scotland']</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>['Austria', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>['Argentina', 3, 1, 3]</t>
-        </is>
-      </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>['Romania', 2, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2930,65 +3062,62 @@
         <v>1990</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1990-06-19</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['Ireland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>['Austria', 'Scotland']</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>['Austria', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 2]</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -2999,65 +3128,62 @@
         <v>1990</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1990-06-19</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Austria']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>['Austria', 1, -2, 0]</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>['Austria', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3068,65 +3194,62 @@
         <v>1990</v>
       </c>
       <c r="B39" t="n">
-        <v>22</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1990-06-19</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
         <v>4</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3137,65 +3260,62 @@
         <v>1990</v>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1990-06-19</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>4</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3206,65 +3326,62 @@
         <v>1990</v>
       </c>
       <c r="B41" t="n">
-        <v>88</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1990-06-19</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['Scotland', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>4</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>['Colombia', 2, 0, 2]</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3275,65 +3392,62 @@
         <v>1990</v>
       </c>
       <c r="B42" t="n">
-        <v>93</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1990-06-19</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Colombia']</t>
+        </is>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>4</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>['Colombia', 3, 1, 3]</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>['Colombia', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3344,65 +3458,62 @@
         <v>1990</v>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1990-06-19</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>['Austria', 'Uruguay']</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>4</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>['Austria', 2, -1, 1]</t>
-        </is>
-      </c>
       <c r="K43" t="inlineStr">
         <is>
+          <t>['Austria', 1, -2, 0]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3413,65 +3524,62 @@
         <v>1990</v>
       </c>
       <c r="B44" t="n">
-        <v>78</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1990-06-19</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['Ireland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>['Austria', 2, 0, 2]</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>['Austria', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3482,65 +3590,62 @@
         <v>1990</v>
       </c>
       <c r="B45" t="n">
-        <v>83</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1990-06-19</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['Austria', 'Uruguay']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="n">
-        <v>6</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>['Austria', 2, -1, 2]</t>
-        </is>
+      <c r="J45" t="n">
+        <v>5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
+          <t>['Austria', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3551,65 +3656,62 @@
         <v>1990</v>
       </c>
       <c r="B46" t="n">
-        <v>32</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1990-06-20</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>['Sweden', 2, -1, 3]</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3620,65 +3722,62 @@
         <v>1990</v>
       </c>
       <c r="B47" t="n">
-        <v>75</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1990-06-20</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="n">
+        <v>7</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>['Scotland', 3, 0, 2]</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>['Sweden', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3689,65 +3788,62 @@
         <v>1990</v>
       </c>
       <c r="B48" t="n">
-        <v>81</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1990-06-20</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['Scotland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="n">
+        <v>8</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -1, 2]</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>['Scotland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3758,65 +3854,62 @@
         <v>1990</v>
       </c>
       <c r="B49" t="n">
-        <v>87</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1990-06-20</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['Scotland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
         <v>9</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3827,65 +3920,62 @@
         <v>1990</v>
       </c>
       <c r="B50" t="n">
-        <v>26</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1990-06-21</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['Scotland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>9</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3896,65 +3986,62 @@
         <v>1990</v>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1990-06-21</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['Scotland', 'Uruguay']</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>9</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -3965,65 +4052,62 @@
         <v>1990</v>
       </c>
       <c r="B52" t="n">
-        <v>91</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1990-06-21</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>['Uruguay', 3, -1, 2]</t>
-        </is>
-      </c>
       <c r="O52" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>['Ireland', 2, 0, 1]</t>
         </is>
@@ -4034,67 +4118,64 @@
         <v>1990</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1990-06-21</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>['Austria', 'Scotland']</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="I53" t="n">
-        <v>11</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="J53" t="n">
+        <v>10</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>['Uruguay', 3, -1, 2]</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>['Egypt', 3, 0, 1]</t>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4103,67 +4184,64 @@
         <v>1990</v>
       </c>
       <c r="B54" t="n">
-        <v>58</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1990-06-21</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Uruguay']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['Scotland', 'Egypt']</t>
+          <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" t="n">
+        <v>11</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>['Uruguay', 3, -1, 2]</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>['Egypt', 2, -1, 1]</t>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['Egypt', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4172,67 +4250,64 @@
         <v>1990</v>
       </c>
       <c r="B55" t="n">
-        <v>71</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1990-06-21</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Uruguay']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
+          <t>['Scotland', 'Egypt']</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
-        <v>13</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>['Uruguay', 3, -1, 2]</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>['Ireland', 3, 0, 2]</t>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['Egypt', 2, -1, 1]</t>
         </is>
       </c>
     </row>
@@ -4247,53 +4322,58 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>['Austria', 0, -2, 0]</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>13</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Argentina', 2, 1, 2]</t>
+          <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -4316,51 +4396,56 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Romania', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>['Romania', 4, -1, 4]</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4371,7 +4456,7 @@
         <v>1994</v>
       </c>
       <c r="B58" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -4385,51 +4470,56 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4440,7 +4530,7 @@
         <v>1994</v>
       </c>
       <c r="B59" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -4454,51 +4544,56 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>1</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4509,7 +4604,7 @@
         <v>1994</v>
       </c>
       <c r="B60" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -4523,51 +4618,56 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>1</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4578,11 +4678,11 @@
         <v>1994</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1994-06-27</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4592,51 +4692,56 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>1</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4647,11 +4752,11 @@
         <v>1994</v>
       </c>
       <c r="B62" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1994-06-27</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4661,51 +4766,56 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>1</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4716,11 +4826,11 @@
         <v>1994</v>
       </c>
       <c r="B63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1994-06-27</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4730,51 +4840,56 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>1</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>['South Korea', 2, -2, 2]</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4785,11 +4900,11 @@
         <v>1994</v>
       </c>
       <c r="B64" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1994-06-27</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4799,51 +4914,56 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>1</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>['South Korea', 2, -3, 2]</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4854,11 +4974,11 @@
         <v>1994</v>
       </c>
       <c r="B65" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1994-06-27</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4868,51 +4988,56 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>1</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>['South Korea', 2, -2, 3]</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4923,11 +5048,11 @@
         <v>1994</v>
       </c>
       <c r="B66" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1994-06-27</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4937,51 +5062,56 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>1</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -4992,11 +5122,11 @@
         <v>1994</v>
       </c>
       <c r="B67" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1994-06-27</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5006,51 +5136,56 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>1</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -5061,11 +5196,11 @@
         <v>1994</v>
       </c>
       <c r="B68" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1994-06-27</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5075,51 +5210,56 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>1</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -5130,11 +5270,11 @@
         <v>1994</v>
       </c>
       <c r="B69" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1994-06-27</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5144,51 +5284,56 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>1</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -5199,65 +5344,70 @@
         <v>1994</v>
       </c>
       <c r="B70" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>2</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -5268,65 +5418,70 @@
         <v>1994</v>
       </c>
       <c r="B71" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>3</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -5337,11 +5492,11 @@
         <v>1994</v>
       </c>
       <c r="B72" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5351,51 +5506,56 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>3</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>['Russia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -5406,11 +5566,11 @@
         <v>1994</v>
       </c>
       <c r="B73" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5420,51 +5580,56 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>3</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>['Russia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -5475,11 +5640,11 @@
         <v>1994</v>
       </c>
       <c r="B74" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5489,51 +5654,56 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>3</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>['Russia', 3, -2, 3]</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -5544,11 +5714,11 @@
         <v>1994</v>
       </c>
       <c r="B75" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5558,51 +5728,56 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>3</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>['Russia', 3, -2, 4]</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="N75" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
@@ -5613,11 +5788,11 @@
         <v>1994</v>
       </c>
       <c r="B76" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5627,51 +5802,56 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['United States', 'Netherlands']</t>
         </is>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>4</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>['Russia', 3, -2, 4]</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 3]</t>
         </is>
@@ -5682,11 +5862,11 @@
         <v>1994</v>
       </c>
       <c r="B77" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5696,51 +5876,56 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>['United States', 'Netherlands']</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
         <v>4</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>['Russia', 3, -1, 5]</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 3]</t>
         </is>
@@ -5751,11 +5936,11 @@
         <v>1994</v>
       </c>
       <c r="B78" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5765,51 +5950,56 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>['United States', 'Netherlands']</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>4</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>['Russia', 3, 0, 6]</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 3]</t>
         </is>
@@ -5820,11 +6010,11 @@
         <v>1994</v>
       </c>
       <c r="B79" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1994-06-28</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5834,51 +6024,56 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>['United States', 'Netherlands']</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>4</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 3]</t>
         </is>
@@ -5889,65 +6084,70 @@
         <v>1994</v>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1994-06-29</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>4</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 2]</t>
         </is>
@@ -5958,65 +6158,70 @@
         <v>1994</v>
       </c>
       <c r="B81" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1994-06-29</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>5</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
@@ -6027,65 +6232,70 @@
         <v>1994</v>
       </c>
       <c r="B82" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1994-06-29</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>5</v>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="N82" t="inlineStr">
         <is>
           <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
@@ -6096,65 +6306,70 @@
         <v>1994</v>
       </c>
       <c r="B83" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1994-06-30</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>['Belgium', 'Bulgaria', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>5</v>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="N83" t="inlineStr">
         <is>
           <t>['Bulgaria', 6, 2, 5]</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
@@ -6165,65 +6380,70 @@
         <v>1994</v>
       </c>
       <c r="B84" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1994-06-30</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>['Argentina', 'Belgium', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>6</v>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>['Argentina', 6, 3, 6]</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
@@ -6234,65 +6454,70 @@
         <v>1994</v>
       </c>
       <c r="B85" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1994-06-30</t>
+          <t>1994-06-26</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>['Argentina', 'Belgium', 'Italy', 'United States']</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['Russia', 'South Korea']</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>6</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>['United States', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>['Russia', 3, 1, 7]</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>['South Korea', 2, -1, 4]</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>['Argentina', 6, 3, 6]</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>['Italy', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>

--- a/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -594,7 +594,7 @@
         <v>1986</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>1986</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -742,47 +742,47 @@
         <v>1986</v>
       </c>
       <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1986-06-09</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['Uruguay', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 'Northern Ireland']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
+          <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>1986</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -845,18 +845,18 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
+          <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
         <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -919,18 +919,18 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -1, 2]</t>
+          <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -964,11 +964,11 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -978,12 +978,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1038,11 +1038,11 @@
         <v>1986</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1112,11 +1112,11 @@
         <v>1986</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1186,11 +1186,11 @@
         <v>1986</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1260,11 +1260,11 @@
         <v>1986</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1274,12 +1274,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1334,11 +1334,11 @@
         <v>1986</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1408,11 +1408,11 @@
         <v>1986</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland', 'Paraguay', 'Poland']</t>
+          <t>['Bulgaria', 'Morocco', 'Northern Ireland', 'Paraguay']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1482,11 +1482,11 @@
         <v>1986</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1556,11 +1556,11 @@
         <v>1986</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1570,12 +1570,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1630,11 +1630,11 @@
         <v>1986</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland', 'Paraguay', 'Poland']</t>
+          <t>['Bulgaria', 'Morocco', 'Northern Ireland', 'Paraguay']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1704,11 +1704,11 @@
         <v>1986</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1718,12 +1718,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'Northern Ireland', 'Poland']</t>
+          <t>['Belgium', 'Bulgaria', 'Morocco', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1778,21 +1778,21 @@
         <v>1986</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1852,21 +1852,21 @@
         <v>1986</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1926,21 +1926,21 @@
         <v>1986</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2000,21 +2000,21 @@
         <v>1986</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2074,21 +2074,21 @@
         <v>1986</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2148,21 +2148,21 @@
         <v>1986</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2222,11 +2222,11 @@
         <v>1986</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2296,11 +2296,11 @@
         <v>1986</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2370,11 +2370,11 @@
         <v>1986</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-12</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2444,11 +2444,11 @@
         <v>1986</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-12</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2518,11 +2518,11 @@
         <v>1986</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-12</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2592,11 +2592,11 @@
         <v>1986</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1986-06-09</t>
+          <t>1986-06-13</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2666,13 +2666,21 @@
         <v>1990</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2687,7 +2695,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2703,7 +2711,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['Argentina', 2, 1, 2]</t>
+          <t>['Argentina', 3, 1, 2]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2732,13 +2740,21 @@
         <v>1990</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2798,13 +2814,21 @@
         <v>1990</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+        <v>52</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2850,7 +2874,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2864,18 +2888,26 @@
         <v>1990</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+        <v>62</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>['Colombia', 'Ireland', 'Romania', 'Scotland']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2889,10 +2921,10 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2901,7 +2933,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 2]</t>
+          <t>['Romania', 2, 0, 3]</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2916,7 +2948,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2930,32 +2962,40 @@
         <v>1990</v>
       </c>
       <c r="B35" t="n">
+        <v>63</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Ireland', 'Romania', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>['Colombia', 'Ireland', 'Romania', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['Uruguay', 'Austria']</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2982,7 +3022,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2996,28 +3036,36 @@
         <v>1990</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['Austria', 'Colombia', 'Romania', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Ireland', 'Uruguay']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3028,12 +3076,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Austria', 2, 0, 2]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['Romania', 2, 0, 3]</t>
+          <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3048,7 +3096,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3062,39 +3110,47 @@
         <v>1990</v>
       </c>
       <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['Ireland', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>['Austria', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Austria', 2, 0, 2]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3109,12 +3165,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3128,39 +3184,47 @@
         <v>1990</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Ireland', 'Uruguay']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Austria', 2, 0, 2]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3180,7 +3244,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3194,39 +3258,47 @@
         <v>1990</v>
       </c>
       <c r="B39" t="n">
+        <v>22</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['Uruguay', 'Austria']</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3246,7 +3318,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3260,13 +3332,21 @@
         <v>1990</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3288,11 +3368,11 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3312,7 +3392,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3326,13 +3406,21 @@
         <v>1990</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+        <v>88</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3347,18 +3435,18 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3373,12 +3461,12 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3392,13 +3480,21 @@
         <v>1990</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+        <v>93</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3413,18 +3509,18 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3439,12 +3535,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 0, 2]</t>
+          <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3458,10 +3554,18 @@
         <v>1990</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+        <v>49</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>Group A</t>
@@ -3474,7 +3578,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Austria']</t>
+          <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3486,11 +3590,11 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3510,7 +3614,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3524,10 +3628,18 @@
         <v>1990</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Group A</t>
@@ -3535,28 +3647,28 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Austria', 'Uruguay']</t>
+          <t>['Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Austria', 2, -1, 1]</t>
+          <t>['Austria', 2, 0, 2]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3576,7 +3688,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3590,10 +3702,18 @@
         <v>1990</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+        <v>83</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Group A</t>
@@ -3601,28 +3721,28 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Ireland', 'Uruguay']</t>
+          <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Austria', 2, 0, 2]</t>
+          <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3642,7 +3762,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3656,18 +3776,26 @@
         <v>1990</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3684,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3698,7 +3826,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Sweden', 2, -1, 3]</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3708,7 +3836,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3722,18 +3850,26 @@
         <v>1990</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3750,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3764,7 +3900,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 3]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3774,7 +3910,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3788,35 +3924,43 @@
         <v>1990</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Austria', 'Uruguay']</t>
+          <t>['Scotland', 'Uruguay']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3830,7 +3974,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3840,7 +3984,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3854,35 +3998,43 @@
         <v>1990</v>
       </c>
       <c r="B49" t="n">
+        <v>87</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['Scotland', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3906,7 +4058,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3920,13 +4072,21 @@
         <v>1990</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3948,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3986,13 +4146,21 @@
         <v>1990</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4014,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4052,23 +4220,31 @@
         <v>1990</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+        <v>91</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Scotland', 'Uruguay']</t>
+          <t>['Austria', 'Scotland']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4077,10 +4253,10 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4104,7 +4280,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 3, -1, 2]</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4118,18 +4294,26 @@
         <v>1990</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4146,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4175,7 +4359,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Egypt', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4184,23 +4368,31 @@
         <v>1990</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+        <v>58</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Uruguay']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
+          <t>['Scotland', 'Egypt']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4212,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4241,7 +4433,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>['Egypt', 3, 0, 1]</t>
+          <t>['Egypt', 2, -1, 1]</t>
         </is>
       </c>
     </row>
@@ -4250,23 +4442,31 @@
         <v>1990</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['Scotland', 'Egypt']</t>
+          <t>['Austria', 'Scotland']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4278,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4307,7 +4507,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>['Egypt', 2, -1, 1]</t>
+          <t>['Ireland', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -4327,53 +4527,53 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Austria', 2, -1, 2]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Argentina', 2, 1, 2]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -1, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4656,7 @@
         <v>1994</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -4530,7 +4730,7 @@
         <v>1994</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -4554,7 +4754,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4575,7 +4775,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4604,7 +4804,7 @@
         <v>1994</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -4628,7 +4828,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4649,7 +4849,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4678,11 +4878,11 @@
         <v>1994</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4692,7 +4892,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4702,7 +4902,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4723,7 +4923,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4752,11 +4952,11 @@
         <v>1994</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4766,7 +4966,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4776,7 +4976,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4797,7 +4997,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4826,11 +5026,11 @@
         <v>1994</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4840,7 +5040,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4850,7 +5050,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4871,7 +5071,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4900,11 +5100,11 @@
         <v>1994</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4914,7 +5114,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4924,7 +5124,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4945,7 +5145,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4974,11 +5174,11 @@
         <v>1994</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4988,7 +5188,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4998,7 +5198,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5019,7 +5219,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5048,11 +5248,11 @@
         <v>1994</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5062,7 +5262,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5072,7 +5272,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5093,7 +5293,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5122,11 +5322,11 @@
         <v>1994</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5136,7 +5336,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5146,7 +5346,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5167,7 +5367,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5196,11 +5396,11 @@
         <v>1994</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5210,7 +5410,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5220,7 +5420,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5241,7 +5441,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5270,11 +5470,11 @@
         <v>1994</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-27</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5284,7 +5484,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5294,7 +5494,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5315,7 +5515,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5344,21 +5544,21 @@
         <v>1994</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5368,7 +5568,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5389,7 +5589,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5418,21 +5618,21 @@
         <v>1994</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5442,7 +5642,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5463,7 +5663,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['Russia', 3, -1, 4]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5492,11 +5692,11 @@
         <v>1994</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5506,7 +5706,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5566,11 +5766,11 @@
         <v>1994</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5580,7 +5780,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5640,11 +5840,11 @@
         <v>1994</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5654,7 +5854,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5714,11 +5914,11 @@
         <v>1994</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5728,7 +5928,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5788,43 +5988,43 @@
         <v>1994</v>
       </c>
       <c r="B76" t="n">
+        <v>47</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1994-06-26</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['Russia', 'South Korea']</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>['United States', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -5853,7 +6053,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -5862,11 +6062,11 @@
         <v>1994</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5876,12 +6076,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5891,14 +6091,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['United States', 'Netherlands']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -5927,7 +6127,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -5936,11 +6136,11 @@
         <v>1994</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5950,12 +6150,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5965,14 +6165,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['United States', 'Netherlands']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6001,7 +6201,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -6010,11 +6210,11 @@
         <v>1994</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-28</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6024,12 +6224,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Netherlands', 'United States']</t>
+          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6039,14 +6239,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['United States', 'Netherlands']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6075,7 +6275,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -6084,21 +6284,21 @@
         <v>1994</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-29</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6117,7 +6317,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>4</v>
@@ -6158,21 +6358,21 @@
         <v>1994</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-29</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6232,21 +6432,21 @@
         <v>1994</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-29</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6306,21 +6506,21 @@
         <v>1994</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-30</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6380,21 +6580,21 @@
         <v>1994</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-30</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6454,21 +6654,21 @@
         <v>1994</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1994-06-26</t>
+          <t>1994-06-30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2716,22 +2716,22 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2790,22 +2790,22 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2864,22 +2864,22 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2938,22 +2938,22 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3012,22 +3012,22 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3086,22 +3086,22 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3244,12 +3244,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3318,12 +3318,12 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3392,12 +3392,12 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3647,24 +3647,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Ireland', 'Uruguay']</t>
+          <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3836,12 +3836,12 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3910,12 +3910,12 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3984,12 +3984,12 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4058,12 +4058,12 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4548,32 +4548,32 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Argentina', 2, 1, 2]</t>
+          <t>['Argentina', 3, 1, 2]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -4627,12 +4627,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['South Korea', 2, 0, 2]</t>
+          <t>['South Korea', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['South Korea', 2, 0, 2]</t>
+          <t>['South Korea', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['South Korea', 2, 0, 2]</t>
+          <t>['South Korea', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4849,12 +4849,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['South Korea', 2, 0, 2]</t>
+          <t>['South Korea', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -5124,12 +5124,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['South Korea', 'Cameroon']</t>
+          <t>['Cameroon', 'South Korea']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['United States', 'Cameroon', 'South Korea', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/best_four_third_teams_wc_eufa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>Group F</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>half_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -588,6 +593,7 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -662,6 +668,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -736,6 +745,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -810,6 +822,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -884,6 +899,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -958,6 +976,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1032,6 +1053,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1106,6 +1130,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1180,6 +1207,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1254,6 +1284,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1328,6 +1361,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1402,6 +1438,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1476,6 +1515,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1550,6 +1592,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1624,6 +1669,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1698,6 +1746,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1772,6 +1823,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1846,6 +1900,9 @@
           <t>['England', 3, 0, 1]</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1920,6 +1977,9 @@
           <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1994,6 +2054,9 @@
           <t>['Poland', 3, -1, 1]</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2068,6 +2131,9 @@
           <t>['Poland', 3, -1, 1]</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2142,6 +2208,9 @@
           <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2216,6 +2285,9 @@
           <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2290,6 +2362,9 @@
           <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2364,6 +2439,9 @@
           <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2438,6 +2516,9 @@
           <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2512,6 +2593,9 @@
           <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2586,6 +2670,9 @@
           <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2660,13 +2747,16 @@
           <t>['Poland', 3, -2, 1]</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1990</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2734,13 +2824,14 @@
           <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1990</v>
       </c>
       <c r="B32" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2807,6 +2898,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2814,7 +2908,7 @@
         <v>1990</v>
       </c>
       <c r="B33" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2881,6 +2975,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2888,7 +2985,7 @@
         <v>1990</v>
       </c>
       <c r="B34" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2907,7 +3004,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ireland', 'Romania', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2917,14 +3014,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2933,7 +3030,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['Romania', 2, 0, 3]</t>
+          <t>['Argentina', 3, 1, 2]</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2955,6 +3052,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2962,7 +3062,7 @@
         <v>1990</v>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2995,7 +3095,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -3029,6 +3129,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3036,7 +3139,7 @@
         <v>1990</v>
       </c>
       <c r="B36" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -3055,7 +3158,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>['Colombia', 'Ireland', 'Romania', 'Scotland']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3069,10 +3172,10 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3081,7 +3184,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Romania', 2, 0, 3]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3103,6 +3206,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3110,21 +3216,21 @@
         <v>1990</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1990-06-19</t>
+          <t>1990-06-18</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3143,7 +3249,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>2</v>
@@ -3177,6 +3283,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3184,7 +3293,7 @@
         <v>1990</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -3251,6 +3360,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3258,7 +3370,7 @@
         <v>1990</v>
       </c>
       <c r="B39" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3325,6 +3437,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3332,7 +3447,7 @@
         <v>1990</v>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3399,6 +3514,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3406,7 +3524,7 @@
         <v>1990</v>
       </c>
       <c r="B41" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3461,7 +3579,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 0, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3473,6 +3591,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3480,7 +3601,7 @@
         <v>1990</v>
       </c>
       <c r="B42" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3509,7 +3630,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3535,7 +3656,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Colombia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3547,6 +3668,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3554,7 +3678,7 @@
         <v>1990</v>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -3563,12 +3687,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3578,7 +3702,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Austria', 'Uruguay']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3594,7 +3718,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Austria', 2, -1, 1]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3621,6 +3745,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -3628,7 +3755,7 @@
         <v>1990</v>
       </c>
       <c r="B44" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3668,7 +3795,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Austria', 2, 0, 2]</t>
+          <t>['Austria', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3695,6 +3822,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -3702,7 +3832,7 @@
         <v>1990</v>
       </c>
       <c r="B45" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3742,7 +3872,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Austria', 2, -1, 2]</t>
+          <t>['Austria', 2, 0, 2]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3769,6 +3899,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -3776,11 +3909,11 @@
         <v>1990</v>
       </c>
       <c r="B46" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1990-06-20</t>
+          <t>1990-06-19</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3790,12 +3923,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3809,10 +3942,10 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3826,7 +3959,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 3]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3843,6 +3976,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -3850,7 +3986,7 @@
         <v>1990</v>
       </c>
       <c r="B47" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3869,7 +4005,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3886,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3900,7 +4036,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Sweden', 2, -1, 3]</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3917,6 +4053,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3924,7 +4063,7 @@
         <v>1990</v>
       </c>
       <c r="B48" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3943,24 +4082,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Scotland', 'Uruguay']</t>
+          <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3974,7 +4113,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -1, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3991,6 +4130,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3998,7 +4140,7 @@
         <v>1990</v>
       </c>
       <c r="B49" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -4031,7 +4173,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
@@ -4065,6 +4207,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4072,21 +4217,21 @@
         <v>1990</v>
       </c>
       <c r="B50" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1990-06-21</t>
+          <t>1990-06-20</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4139,6 +4284,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -4146,7 +4294,7 @@
         <v>1990</v>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -4213,6 +4361,9 @@
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4220,7 +4371,7 @@
         <v>1990</v>
       </c>
       <c r="B52" t="n">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -4239,12 +4390,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Ireland']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
+          <t>['Scotland', 'Uruguay']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4253,10 +4404,10 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4280,13 +4431,16 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>['Ireland', 3, 0, 1]</t>
         </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4294,7 +4448,7 @@
         <v>1990</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -4303,17 +4457,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4330,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4359,8 +4513,11 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>['Egypt', 3, 0, 1]</t>
-        </is>
+          <t>['Ireland', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -4368,7 +4525,7 @@
         <v>1990</v>
       </c>
       <c r="B54" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -4387,12 +4544,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Austria', 'Colombia', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Scotland', 'Egypt']</t>
+          <t>['Austria', 'Scotland']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4404,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4433,8 +4590,11 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>['Egypt', 2, -1, 1]</t>
-        </is>
+          <t>['Egypt', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4442,7 +4602,7 @@
         <v>1990</v>
       </c>
       <c r="B55" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -4461,12 +4621,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+          <t>['Argentina', 'Austria', 'Colombia', 'Uruguay']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland']</t>
+          <t>['Scotland', 'Egypt']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4478,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4507,8 +4667,11 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
-        </is>
+          <t>['Egypt', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -4516,65 +4679,76 @@
         <v>1990</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Scotland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Austria']</t>
+          <t>['Austria', 'Scotland']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 2]</t>
+          <t>['Argentina', 3, 1, 3]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, -1, 2]</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 3, 1, 3]</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 3, -1, 2]</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
-        </is>
+          <t>['Ireland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -4601,7 +4775,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Romania', 'Saudi Arabia']</t>
+          <t>['Bulgaria', 'Norway', 'Romania', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4642,7 +4816,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4650,6 +4824,7 @@
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4675,7 +4850,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4716,13 +4891,16 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4749,7 +4927,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4790,13 +4968,16 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4823,7 +5004,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4864,13 +5045,16 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -4897,7 +5081,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4938,13 +5122,16 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4971,7 +5158,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5012,13 +5199,16 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -5045,7 +5235,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5086,13 +5276,16 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -5119,7 +5312,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5160,13 +5353,16 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -5193,7 +5389,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5234,13 +5430,16 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -5267,7 +5466,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5308,13 +5507,16 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -5341,7 +5543,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5382,13 +5584,16 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -5415,7 +5620,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5456,13 +5661,16 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -5489,7 +5697,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Saudi Arabia', 'United States']</t>
+          <t>['Bulgaria', 'Norway', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5530,13 +5738,16 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Italy', 4, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -5577,10 +5788,10 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5611,6 +5822,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -5654,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5685,6 +5899,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -5728,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -5759,6 +5976,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5802,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5833,6 +6053,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -5876,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -5907,6 +6130,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -5950,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5981,6 +6207,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -6024,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6055,6 +6284,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -6098,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6129,6 +6361,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -6172,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6203,6 +6438,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -6246,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6277,6 +6515,9 @@
         <is>
           <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -6320,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6351,6 +6592,9 @@
         <is>
           <t>['Netherlands', 4, 0, 2]</t>
         </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -6394,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -6425,6 +6669,9 @@
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -6468,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -6499,6 +6746,9 @@
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -6542,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -6573,6 +6823,9 @@
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -6616,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -6647,6 +6900,9 @@
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -6690,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -6721,6 +6977,9 @@
         <is>
           <t>['Belgium', 6, 1, 2]</t>
         </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
